--- a/server/modules/output/Feedback_Report.xlsx
+++ b/server/modules/output/Feedback_Report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,9 +483,38 @@
         <v>Unknown</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>YATIKA JENA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>230102105</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Very Poor</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Very Poor</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Very Poor</v>
+      </c>
+      <c r="F4" t="str">
+        <v>hojaaa</v>
+      </c>
+      <c r="G4" t="str">
+        <v>5/17/2025</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/modules/output/Feedback_Report.xlsx
+++ b/server/modules/output/Feedback_Report.xlsx
@@ -397,124 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>User</v>
-      </c>
-      <c r="B1" t="str">
-        <v>RollNumber</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Breakfast</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Lunch</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dinner</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Comment</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Hostel</v>
-      </c>
-      <c r="I1" t="str">
-        <v>CurrentMess</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Manan</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2301098053</v>
-      </c>
-      <c r="C2" t="str">
-        <v>poor</v>
-      </c>
-      <c r="D2" t="str">
-        <v>average</v>
-      </c>
-      <c r="E2" t="str">
-        <v>poor</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Food was good, but could be better.</v>
-      </c>
-      <c r="G2" t="str">
-        <v>16/5/2025</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Hariom</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2301068053</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Good</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Average</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Keep improving the variety!</v>
-      </c>
-      <c r="G3" t="str">
-        <v>16/5/2025</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Unknown</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>YATIKA JENA</v>
-      </c>
-      <c r="B4" t="str">
-        <v>230102105</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Very Poor</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Very Poor</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Very Poor</v>
-      </c>
-      <c r="F4" t="str">
-        <v>hojaaa</v>
-      </c>
-      <c r="G4" t="str">
-        <v>5/17/2025</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Unknown</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>